--- a/Securite_CMS.xlsx
+++ b/Securite_CMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Simplon\1-cybersecurite\documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75451646-E58A-4A5B-88FD-AEC0A2CE79A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F993C5-8258-4214-A18D-9FDFB6A7D185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTEXT" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="54">
   <si>
     <t>Contexte</t>
   </si>
@@ -105,11 +105,6 @@
     <t>Nous devons récupérer des informations spécifiques en faisant un pentest d'une application utilisant le CMS Wordpress.</t>
   </si>
   <si>
-    <t>Serveur web sur le port 80
-Samba sur les ports 139 et 445
-Application wordpress 5.0 où les répertoires ne sont pas protéger en lecture.</t>
-  </si>
-  <si>
     <t>utilisation de Wpscan pour avoir la version de wordpress et les utilisateurs</t>
   </si>
   <si>
@@ -123,9 +118,6 @@
   <si>
     <t>http://packetstormsecurity.com/files/152396/WordPress-5.0.0-crop-image-Shell-Upload.html
 http://www.rapid7.com/db/modules/exploit/multi/http/wp_crop_rce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
   </si>
   <si>
     <t xml:space="preserve">On fait une première reconnaissance pour identifier les informations relatives à notre cible en utilisant la commande suivante. On utilise la commande nmap ci-dessous :
@@ -141,9 +133,6 @@
   <si>
     <t>Utilisation de l'outil hydra afin de brut force le mot de passe suivant l'url pour s'authentifier à wordpress
 Utilisation de rockyou.txt</t>
-  </si>
-  <si>
-    <t>Exploit via multi/http/wp_crop_rce générer par metasploit afin d'avoir un reverse shell en utilisant la faille d'upload d'image. L'image est au final un shell permettant à l'attaquant d'avoir la main sur la machine.</t>
   </si>
   <si>
     <t>Configuration de l'exploit avant de le lancer comme l'image sur le côté</t>
@@ -198,6 +187,44 @@
   </si>
   <si>
     <t>Utilisation de cette exploit pour avoir la main sur le système via l'utilisation de metasploit framework (multi/http/wp_crop_rce)  =&gt; upload d'une image qui est en faite un shell</t>
+  </si>
+  <si>
+    <t>Eviter d'exposer samba sur internet
+Eviter d'exposer les dossiers à la lecture</t>
+  </si>
+  <si>
+    <t>Serveur web apache (ubuntu) qui fonctionne sur le port 80
+Samba sur les ports 139 et 445
+Application wordpress 5.0 où les répertoires ne sont pas protéger en lecture.</t>
+  </si>
+  <si>
+    <t>On peut télécharger les fichiers de l'application wp-includes car la structure n'est pas bloqué à la lecture.
+On peut voir que samba fonctionne et donc on a la possibilité d'utilisé sambaclient et vérifier si on a accès.</t>
+  </si>
+  <si>
+    <t>Utilisation de mot de passe faible pour un des comptes utilisateur de wordpress</t>
+  </si>
+  <si>
+    <t>Etant donnée que le mot de passe est faible, on peut brut force et avoir accès à son compte.</t>
+  </si>
+  <si>
+    <t>Etant donnée que nous avons la version de wordpress qui  n'est pas à jour et l'accès à un compte utilisateur. On peut exploiter une faille de sécurité.</t>
+  </si>
+  <si>
+    <t>On se base sur l'exploit CVE-2019-8942. Il s'agit d'un exploit via multi/http/wp_crop_rce générer par metasploit afin d'avoir un reverse shell en utilisant la faille d'upload d'image. L'image est au final un shell permettant à l'attaquant d'avoir la main sur la machine.</t>
+  </si>
+  <si>
+    <t>La configuration de l'exploit se base sur les logins du compte à mot de passe faible et d'un exploit non patché.</t>
+  </si>
+  <si>
+    <t>on peut se loggué en tant que www-data via un reverse shell</t>
+  </si>
+  <si>
+    <t>privilèges admin en modifiant la variable d'environnement "admin"
+fichier /sbin qui possède un SUID et qui en plus a  été fait à la main car il n'y a pas de documentation à son sujet</t>
+  </si>
+  <si>
+    <t>Utilisation des privilèges root pour la lecture de fichier dans des dossiers qui sont normalement accessible qu'à l'utilisateur root, il peut donc faire d'autres intéraction s'il est mal intentionné.</t>
   </si>
 </sst>
 </file>
@@ -433,6 +460,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -441,12 +474,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -527,8 +554,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>242455</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -968,7 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D28B1C-A78B-4439-B5DC-E7509CD0193B}">
   <dimension ref="F7:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1009,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C225BE-4F14-4EC4-B450-C48A4C84A418}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,7 +1062,9 @@
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
     </row>
@@ -1044,10 +1073,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -1071,7 +1100,9 @@
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
     </row>
@@ -1080,10 +1111,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -1091,9 +1122,7 @@
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
@@ -1158,7 +1187,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1212,9 @@
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
     </row>
@@ -1217,7 +1248,9 @@
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
     </row>
@@ -1226,10 +1259,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -1301,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747E49DD-5AA3-4DD2-BF1B-F07B80238861}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,11 +1356,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
     </row>
@@ -1349,7 +1384,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1357,7 +1392,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1370,14 +1405,14 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1385,7 +1420,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1471,7 +1506,9 @@
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
     </row>
@@ -1514,14 +1551,14 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1590,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4847E7-DBB6-4710-B872-09B0F5A8277E}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,7 +1687,9 @@
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
     </row>
@@ -1659,7 +1698,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="6"/>
@@ -1734,7 +1773,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,7 +1832,9 @@
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
     </row>
@@ -1802,10 +1843,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -1878,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85130519-93D3-4D52-8D7F-9778ABA0DD0B}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,7 +1979,9 @@
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
     </row>
@@ -1947,7 +1990,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -2021,7 +2064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D7B121-D3E8-4762-88CE-0C8D8CE8AE2E}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2036,46 +2079,46 @@
         <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="16"/>
+        <v>40</v>
+      </c>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="17"/>
+      <c r="A7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
